--- a/Clase_11/Base_VAR.xlsx
+++ b/Clase_11/Base_VAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E6B41E-7AAD-504B-B6C2-B2574CFBEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D8B75-EDB8-5748-9026-E04116651819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="1500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805590D1-F097-D543-8963-E1F78B73D744}">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -433,7 +435,7 @@
         <v>77.930000000000007</v>
       </c>
       <c r="F2">
-        <v>94.175799999999995</v>
+        <v>90.712500000000006</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -453,7 +455,7 @@
         <v>77.3673</v>
       </c>
       <c r="F3">
-        <v>94.455699999999993</v>
+        <v>91.493399999999994</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -473,7 +475,7 @@
         <v>80.358000000000004</v>
       </c>
       <c r="F4">
-        <v>94.798000000000002</v>
+        <v>93.103300000000004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -493,7 +495,7 @@
         <v>77.007599999999996</v>
       </c>
       <c r="F5">
-        <v>95.480800000000002</v>
+        <v>91.842200000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -513,7 +515,7 @@
         <v>82.343299999999999</v>
       </c>
       <c r="F6">
-        <v>95.643500000000003</v>
+        <v>92.162899999999993</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,7 +535,7 @@
         <v>81.541499999999999</v>
       </c>
       <c r="F7">
-        <v>95.735299999999995</v>
+        <v>95.109399999999994</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,7 +555,7 @@
         <v>79.6297</v>
       </c>
       <c r="F8">
-        <v>95.590599999999995</v>
+        <v>90.621399999999994</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -573,7 +575,7 @@
         <v>81.190700000000007</v>
       </c>
       <c r="F9">
-        <v>95.311199999999999</v>
+        <v>94.108999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -593,7 +595,7 @@
         <v>80.164900000000003</v>
       </c>
       <c r="F10">
-        <v>95.679000000000002</v>
+        <v>94.584800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -613,7 +615,7 @@
         <v>80.809600000000003</v>
       </c>
       <c r="F11">
-        <v>95.397000000000006</v>
+        <v>93.769099999999995</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -633,7 +635,7 @@
         <v>80.916200000000003</v>
       </c>
       <c r="F12">
-        <v>95.422899999999998</v>
+        <v>92.679900000000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -653,7 +655,7 @@
         <v>79.4983</v>
       </c>
       <c r="F13">
-        <v>95.157300000000006</v>
+        <v>92.172499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -673,7 +675,7 @@
         <v>79.423500000000004</v>
       </c>
       <c r="F14">
-        <v>94.544799999999995</v>
+        <v>91.038899999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -693,7 +695,7 @@
         <v>76.419300000000007</v>
       </c>
       <c r="F15">
-        <v>93.939800000000005</v>
+        <v>91.116900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,7 +715,7 @@
         <v>80.767899999999997</v>
       </c>
       <c r="F16">
-        <v>93.720100000000002</v>
+        <v>92.046000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -733,7 +735,7 @@
         <v>77.531199999999998</v>
       </c>
       <c r="F17">
-        <v>93.446899999999999</v>
+        <v>88.979399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -753,7 +755,7 @@
         <v>81.784099999999995</v>
       </c>
       <c r="F18">
-        <v>92.876000000000005</v>
+        <v>89.726900000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -773,7 +775,7 @@
         <v>80.606999999999999</v>
       </c>
       <c r="F19">
-        <v>92.320800000000006</v>
+        <v>91.850700000000003</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -793,7 +795,7 @@
         <v>79.325299999999999</v>
       </c>
       <c r="F20">
-        <v>91.793300000000002</v>
+        <v>87.543999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -813,7 +815,7 @@
         <v>80.587000000000003</v>
       </c>
       <c r="F21">
-        <v>91.679500000000004</v>
+        <v>90.990099999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -833,7 +835,7 @@
         <v>78.269599999999997</v>
       </c>
       <c r="F22">
-        <v>91.328900000000004</v>
+        <v>90.203299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,7 +855,7 @@
         <v>79.973600000000005</v>
       </c>
       <c r="F23">
-        <v>90.9315</v>
+        <v>89.156000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,7 +875,7 @@
         <v>80.093900000000005</v>
       </c>
       <c r="F24">
-        <v>90.486000000000004</v>
+        <v>87.610500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -893,7 +895,7 @@
         <v>79.092500000000001</v>
       </c>
       <c r="F25">
-        <v>90.507300000000001</v>
+        <v>87.133099999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -913,7 +915,7 @@
         <v>77.386300000000006</v>
       </c>
       <c r="F26">
-        <v>91.079400000000007</v>
+        <v>87.592200000000005</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -933,7 +935,7 @@
         <v>75.109300000000005</v>
       </c>
       <c r="F27">
-        <v>91.055300000000003</v>
+        <v>88.221400000000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -953,7 +955,7 @@
         <v>77.122299999999996</v>
       </c>
       <c r="F28">
-        <v>91.798000000000002</v>
+        <v>89.654899999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -973,7 +975,7 @@
         <v>80.830200000000005</v>
       </c>
       <c r="F29">
-        <v>92.177099999999996</v>
+        <v>88.822400000000002</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,7 +995,7 @@
         <v>82.069900000000004</v>
       </c>
       <c r="F30">
-        <v>92.566800000000001</v>
+        <v>89.288600000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1013,7 +1015,7 @@
         <v>79.721299999999999</v>
       </c>
       <c r="F31">
-        <v>93.447599999999994</v>
+        <v>92.912099999999995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1033,7 +1035,7 @@
         <v>79.927199999999999</v>
       </c>
       <c r="F32">
-        <v>93.223699999999994</v>
+        <v>88.411900000000003</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1053,7 +1055,7 @@
         <v>80.305800000000005</v>
       </c>
       <c r="F33">
-        <v>93.235900000000001</v>
+        <v>92.490399999999994</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1073,7 +1075,7 @@
         <v>78.380200000000002</v>
       </c>
       <c r="F34">
-        <v>93.365399999999994</v>
+        <v>92.381200000000007</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1093,7 +1095,7 @@
         <v>81.607699999999994</v>
       </c>
       <c r="F35">
-        <v>93.083399999999997</v>
+        <v>91.264799999999994</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1113,7 +1115,7 @@
         <v>80.095200000000006</v>
       </c>
       <c r="F36">
-        <v>93.569299999999998</v>
+        <v>90.290099999999995</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1133,7 +1135,7 @@
         <v>80.490499999999997</v>
       </c>
       <c r="F37">
-        <v>93.110299999999995</v>
+        <v>89.448300000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1153,7 +1155,7 @@
         <v>79.272400000000005</v>
       </c>
       <c r="F38">
-        <v>93.819800000000001</v>
+        <v>90.184100000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,7 +1175,7 @@
         <v>77.1755</v>
       </c>
       <c r="F39">
-        <v>93.953199999999995</v>
+        <v>91.100499999999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,7 +1195,7 @@
         <v>80.339799999999997</v>
       </c>
       <c r="F40">
-        <v>93.735799999999998</v>
+        <v>91.765199999999993</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1213,7 +1215,7 @@
         <v>79.950900000000004</v>
       </c>
       <c r="F41">
-        <v>93.065700000000007</v>
+        <v>89.229699999999994</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,7 +1235,7 @@
         <v>82.288399999999996</v>
       </c>
       <c r="F42">
-        <v>93.091800000000006</v>
+        <v>89.7821</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,7 +1255,7 @@
         <v>81.443399999999997</v>
       </c>
       <c r="F43">
-        <v>93.247600000000006</v>
+        <v>92.564800000000005</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1273,7 +1275,7 @@
         <v>80.935699999999997</v>
       </c>
       <c r="F44">
-        <v>93.658199999999994</v>
+        <v>88.581000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1293,7 +1295,7 @@
         <v>79.419899999999998</v>
       </c>
       <c r="F45">
-        <v>93.524600000000007</v>
+        <v>92.819000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1313,7 +1315,7 @@
         <v>79.188800000000001</v>
       </c>
       <c r="F46">
-        <v>94.075100000000006</v>
+        <v>93.079400000000007</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1333,7 +1335,7 @@
         <v>81.879099999999994</v>
       </c>
       <c r="F47">
-        <v>94.207899999999995</v>
+        <v>92.266400000000004</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1353,7 +1355,7 @@
         <v>80.634500000000003</v>
       </c>
       <c r="F48">
-        <v>94.933800000000005</v>
+        <v>91.836600000000004</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,7 +1375,7 @@
         <v>83.330299999999994</v>
       </c>
       <c r="F49">
-        <v>94.866200000000006</v>
+        <v>91.329899999999995</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1393,7 +1395,7 @@
         <v>80.930099999999996</v>
       </c>
       <c r="F50">
-        <v>95.108500000000006</v>
+        <v>91.203100000000006</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1413,7 +1415,7 @@
         <v>79.193899999999999</v>
       </c>
       <c r="F51">
-        <v>95.684700000000007</v>
+        <v>92.89</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1433,7 +1435,7 @@
         <v>84.927899999999994</v>
       </c>
       <c r="F52">
-        <v>95.208799999999997</v>
+        <v>93.224800000000002</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1453,7 +1455,7 @@
         <v>82.936199999999999</v>
       </c>
       <c r="F53">
-        <v>95.638499999999993</v>
+        <v>91.565100000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,7 +1475,7 @@
         <v>85.239099999999993</v>
       </c>
       <c r="F54">
-        <v>96.396600000000007</v>
+        <v>92.959000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,7 +1495,7 @@
         <v>85.620900000000006</v>
       </c>
       <c r="F55">
-        <v>95.601900000000001</v>
+        <v>95.101600000000005</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1513,7 +1515,7 @@
         <v>82.940200000000004</v>
       </c>
       <c r="F56">
-        <v>96.338499999999996</v>
+        <v>92.085700000000003</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1533,7 +1535,7 @@
         <v>83.132400000000004</v>
       </c>
       <c r="F57">
-        <v>96.409499999999994</v>
+        <v>95.575599999999994</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,7 +1555,7 @@
         <v>82.197500000000005</v>
       </c>
       <c r="F58">
-        <v>96.490700000000004</v>
+        <v>94.986900000000006</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1573,7 +1575,7 @@
         <v>84.3626</v>
       </c>
       <c r="F59">
-        <v>97.409400000000005</v>
+        <v>95.244200000000006</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1593,7 +1595,7 @@
         <v>85.941500000000005</v>
       </c>
       <c r="F60">
-        <v>97.613699999999994</v>
+        <v>94.252899999999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1613,7 +1615,7 @@
         <v>86.230500000000006</v>
       </c>
       <c r="F61">
-        <v>98.331800000000001</v>
+        <v>94.595799999999997</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1633,7 +1635,7 @@
         <v>82.258399999999995</v>
       </c>
       <c r="F62">
-        <v>98.784499999999994</v>
+        <v>94.857799999999997</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1653,7 +1655,7 @@
         <v>80.899500000000003</v>
       </c>
       <c r="F63">
-        <v>99.463899999999995</v>
+        <v>95.993799999999993</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1673,7 +1675,7 @@
         <v>83.626400000000004</v>
       </c>
       <c r="F64">
-        <v>99.306100000000001</v>
+        <v>96.454999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1693,7 +1695,7 @@
         <v>86.593699999999998</v>
       </c>
       <c r="F65">
-        <v>99.473399999999998</v>
+        <v>95.793099999999995</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1713,7 +1715,7 @@
         <v>87.888900000000007</v>
       </c>
       <c r="F66">
-        <v>99.603300000000004</v>
+        <v>96.059600000000003</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1733,7 +1735,7 @@
         <v>86.352099999999993</v>
       </c>
       <c r="F67">
-        <v>99.985299999999995</v>
+        <v>99.398700000000005</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1753,7 +1755,7 @@
         <v>83.784199999999998</v>
       </c>
       <c r="F68">
-        <v>99.669200000000004</v>
+        <v>95.733099999999993</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1773,7 +1775,7 @@
         <v>86.431200000000004</v>
       </c>
       <c r="F69">
-        <v>99.9435</v>
+        <v>99.223799999999997</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1793,7 +1795,7 @@
         <v>84.642499999999998</v>
       </c>
       <c r="F70">
-        <v>98.0779</v>
+        <v>96.848200000000006</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1813,7 +1815,7 @@
         <v>86.853099999999998</v>
       </c>
       <c r="F71">
-        <v>99.314899999999994</v>
+        <v>97.024000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1833,7 +1835,7 @@
         <v>88.657300000000006</v>
       </c>
       <c r="F72">
-        <v>100.3216</v>
+        <v>96.749200000000002</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1853,7 +1855,7 @@
         <v>89.1511</v>
       </c>
       <c r="F73">
-        <v>100.94370000000001</v>
+        <v>97.126499999999993</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1873,7 +1875,7 @@
         <v>87.045599999999993</v>
       </c>
       <c r="F74">
-        <v>101.06270000000001</v>
+        <v>96.5899</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1893,7 +1895,7 @@
         <v>84.082999999999998</v>
       </c>
       <c r="F75">
-        <v>101.0669</v>
+        <v>97.320599999999999</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1913,7 +1915,7 @@
         <v>89.540099999999995</v>
       </c>
       <c r="F76">
-        <v>101.27509999999999</v>
+        <v>98.610100000000003</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -1933,7 +1935,7 @@
         <v>87.102500000000006</v>
       </c>
       <c r="F77">
-        <v>101.68129999999999</v>
+        <v>96.783799999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,7 +1955,7 @@
         <v>93.139399999999995</v>
       </c>
       <c r="F78">
-        <v>101.57899999999999</v>
+        <v>98.127200000000002</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -1973,7 +1975,7 @@
         <v>91.368600000000001</v>
       </c>
       <c r="F79">
-        <v>101.9693</v>
+        <v>101.5223</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -1993,7 +1995,7 @@
         <v>88.358900000000006</v>
       </c>
       <c r="F80">
-        <v>101.9319</v>
+        <v>98.475099999999998</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2013,7 +2015,7 @@
         <v>90.246200000000002</v>
       </c>
       <c r="F81">
-        <v>102.3327</v>
+        <v>101.8604</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2033,7 +2035,7 @@
         <v>87.869100000000003</v>
       </c>
       <c r="F82">
-        <v>102.12520000000001</v>
+        <v>100.8608</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2053,7 +2055,7 @@
         <v>91.597499999999997</v>
       </c>
       <c r="F83">
-        <v>102.0668</v>
+        <v>99.674000000000007</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2073,7 +2075,7 @@
         <v>91.145200000000003</v>
       </c>
       <c r="F84">
-        <v>101.9688</v>
+        <v>98.453699999999998</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2093,7 +2095,7 @@
         <v>90.861400000000003</v>
       </c>
       <c r="F85">
-        <v>103.0292</v>
+        <v>99.421700000000001</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2113,7 +2115,7 @@
         <v>88.777299999999997</v>
       </c>
       <c r="F86">
-        <v>102.4933</v>
+        <v>98.346800000000002</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2133,7 +2135,7 @@
         <v>85.768299999999996</v>
       </c>
       <c r="F87">
-        <v>103.5264</v>
+        <v>99.851299999999995</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2153,7 +2155,7 @@
         <v>91.4221</v>
       </c>
       <c r="F88">
-        <v>103.7521</v>
+        <v>100.95610000000001</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2173,7 +2175,7 @@
         <v>89.320599999999999</v>
       </c>
       <c r="F89">
-        <v>104.48139999999999</v>
+        <v>100.0886</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2193,7 +2195,7 @@
         <v>94.322400000000002</v>
       </c>
       <c r="F90">
-        <v>104.5322</v>
+        <v>101.0222</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2213,7 +2215,7 @@
         <v>93.534599999999998</v>
       </c>
       <c r="F91">
-        <v>104.5617</v>
+        <v>104.0433</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2233,7 +2235,7 @@
         <v>91.411000000000001</v>
       </c>
       <c r="F92">
-        <v>104.5227</v>
+        <v>100.8053</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2253,7 +2255,7 @@
         <v>92.217299999999994</v>
       </c>
       <c r="F93">
-        <v>104.7556</v>
+        <v>104.1172</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2273,7 +2275,7 @@
         <v>89.475200000000001</v>
       </c>
       <c r="F94">
-        <v>105.1611</v>
+        <v>103.6148</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2293,7 +2295,7 @@
         <v>95.28</v>
       </c>
       <c r="F95">
-        <v>104.7171</v>
+        <v>101.99760000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2313,7 +2315,7 @@
         <v>93.809200000000004</v>
       </c>
       <c r="F96">
-        <v>105.3338</v>
+        <v>101.52719999999999</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2333,7 +2335,7 @@
         <v>92.4572</v>
       </c>
       <c r="F97">
-        <v>105.34569999999999</v>
+        <v>101.5502</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2353,7 +2355,7 @@
         <v>90.954400000000007</v>
       </c>
       <c r="F98">
-        <v>105.06189999999999</v>
+        <v>100.92400000000001</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2373,7 +2375,7 @@
         <v>88.9893</v>
       </c>
       <c r="F99">
-        <v>104.7094</v>
+        <v>100.6857</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2393,7 +2395,7 @@
         <v>89.053299999999993</v>
       </c>
       <c r="F100">
-        <v>104.4616</v>
+        <v>100.9586</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2413,7 +2415,7 @@
         <v>94.715299999999999</v>
       </c>
       <c r="F101">
-        <v>103.6704</v>
+        <v>99.661000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2433,7 +2435,7 @@
         <v>94.8643</v>
       </c>
       <c r="F102">
-        <v>103.08629999999999</v>
+        <v>99.347399999999993</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2453,7 +2455,7 @@
         <v>94.4559</v>
       </c>
       <c r="F103">
-        <v>102.8445</v>
+        <v>102.01739999999999</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2473,7 +2475,7 @@
         <v>94.159300000000002</v>
       </c>
       <c r="F104">
-        <v>102.3002</v>
+        <v>99.3429</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2493,7 +2495,7 @@
         <v>91.493099999999998</v>
       </c>
       <c r="F105">
-        <v>100.7353</v>
+        <v>100.0472</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2513,7 +2515,7 @@
         <v>90.576499999999996</v>
       </c>
       <c r="F106">
-        <v>96.366600000000005</v>
+        <v>94.975499999999997</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -2533,7 +2535,7 @@
         <v>95.506799999999998</v>
       </c>
       <c r="F107">
-        <v>97.283199999999994</v>
+        <v>94.6721</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -2553,7 +2555,7 @@
         <v>92.042699999999996</v>
       </c>
       <c r="F108">
-        <v>96.060500000000005</v>
+        <v>92.649900000000002</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -2573,7 +2575,7 @@
         <v>91.895099999999999</v>
       </c>
       <c r="F109">
-        <v>93.252099999999999</v>
+        <v>90.568299999999994</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -2593,7 +2595,7 @@
         <v>84.895899999999997</v>
       </c>
       <c r="F110">
-        <v>91.037300000000002</v>
+        <v>88.023799999999994</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -2613,7 +2615,7 @@
         <v>81.840999999999994</v>
       </c>
       <c r="F111">
-        <v>90.450199999999995</v>
+        <v>87.284499999999994</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -2633,7 +2635,7 @@
         <v>86.873599999999996</v>
       </c>
       <c r="F112">
-        <v>89.016000000000005</v>
+        <v>86.343999999999994</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -2653,7 +2655,7 @@
         <v>84.310699999999997</v>
       </c>
       <c r="F113">
-        <v>88.305599999999998</v>
+        <v>84.0124</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -2673,7 +2675,7 @@
         <v>86.081599999999995</v>
       </c>
       <c r="F114">
-        <v>87.415499999999994</v>
+        <v>84.202299999999994</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -2693,7 +2695,7 @@
         <v>88.184299999999993</v>
       </c>
       <c r="F115">
-        <v>87.074200000000005</v>
+        <v>86.3857</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -2713,7 +2715,7 @@
         <v>88.731700000000004</v>
       </c>
       <c r="F116">
-        <v>88.032300000000006</v>
+        <v>85.814899999999994</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -2733,7 +2735,7 @@
         <v>86.553600000000003</v>
       </c>
       <c r="F117">
-        <v>89.019000000000005</v>
+        <v>88.813299999999998</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -2753,7 +2755,7 @@
         <v>86.503699999999995</v>
       </c>
       <c r="F118">
-        <v>89.692599999999999</v>
+        <v>88.047899999999998</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -2773,7 +2775,7 @@
         <v>91.120500000000007</v>
       </c>
       <c r="F119">
-        <v>89.979699999999994</v>
+        <v>87.633600000000001</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,7 +2795,7 @@
         <v>91.248999999999995</v>
       </c>
       <c r="F120">
-        <v>90.337500000000006</v>
+        <v>87.311499999999995</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -2813,7 +2815,7 @@
         <v>91.856200000000001</v>
       </c>
       <c r="F121">
-        <v>90.613200000000006</v>
+        <v>88.066199999999995</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -2833,7 +2835,7 @@
         <v>86.867000000000004</v>
       </c>
       <c r="F122">
-        <v>91.664199999999994</v>
+        <v>88.953400000000002</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -2853,7 +2855,7 @@
         <v>85.227199999999996</v>
       </c>
       <c r="F123">
-        <v>91.994</v>
+        <v>89.013800000000003</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -2873,7 +2875,7 @@
         <v>92.292199999999994</v>
       </c>
       <c r="F124">
-        <v>92.599299999999999</v>
+        <v>90.090500000000006</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -2893,7 +2895,7 @@
         <v>90.581800000000001</v>
       </c>
       <c r="F125">
-        <v>92.943600000000004</v>
+        <v>89.123500000000007</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -2913,7 +2915,7 @@
         <v>92.3</v>
       </c>
       <c r="F126">
-        <v>94.299700000000001</v>
+        <v>90.885599999999997</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -2933,7 +2935,7 @@
         <v>93.230999999999995</v>
       </c>
       <c r="F127">
-        <v>94.439700000000002</v>
+        <v>93.661199999999994</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -2953,7 +2955,7 @@
         <v>92.328599999999994</v>
       </c>
       <c r="F128">
-        <v>94.8536</v>
+        <v>92.079300000000003</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -2973,7 +2975,7 @@
         <v>91.562200000000004</v>
       </c>
       <c r="F129">
-        <v>95.144800000000004</v>
+        <v>94.673299999999998</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -2993,7 +2995,7 @@
         <v>90.5565</v>
       </c>
       <c r="F130">
-        <v>95.363699999999994</v>
+        <v>93.575999999999993</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3013,7 +3015,7 @@
         <v>93.845299999999995</v>
       </c>
       <c r="F131">
-        <v>95.110900000000001</v>
+        <v>92.632000000000005</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3033,7 +3035,7 @@
         <v>95.969300000000004</v>
       </c>
       <c r="F132">
-        <v>95.138300000000001</v>
+        <v>91.747600000000006</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3053,7 +3055,7 @@
         <v>95.596199999999996</v>
       </c>
       <c r="F133">
-        <v>96.059899999999999</v>
+        <v>93.147499999999994</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3073,7 +3075,7 @@
         <v>90.205600000000004</v>
       </c>
       <c r="F134">
-        <v>95.936400000000006</v>
+        <v>93.059200000000004</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3093,7 +3095,7 @@
         <v>88.569000000000003</v>
       </c>
       <c r="F135">
-        <v>95.5154</v>
+        <v>92.282799999999995</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3113,7 +3115,7 @@
         <v>95.829300000000003</v>
       </c>
       <c r="F136">
-        <v>96.464299999999994</v>
+        <v>93.916700000000006</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3133,7 +3135,7 @@
         <v>91.600200000000001</v>
       </c>
       <c r="F137">
-        <v>96.118700000000004</v>
+        <v>92.114500000000007</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3153,7 +3155,7 @@
         <v>95.946299999999994</v>
       </c>
       <c r="F138">
-        <v>96.337699999999998</v>
+        <v>92.833200000000005</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,7 +3175,7 @@
         <v>96.488600000000005</v>
       </c>
       <c r="F139">
-        <v>96.615399999999994</v>
+        <v>95.629599999999996</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,7 +3195,7 @@
         <v>95.218000000000004</v>
       </c>
       <c r="F140">
-        <v>97.129199999999997</v>
+        <v>94.5946</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,7 +3215,7 @@
         <v>96.539000000000001</v>
       </c>
       <c r="F141">
-        <v>97.673100000000005</v>
+        <v>97.0261</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3233,7 +3235,7 @@
         <v>94.102000000000004</v>
       </c>
       <c r="F142">
-        <v>97.6494</v>
+        <v>95.972300000000004</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3253,7 +3255,7 @@
         <v>97.437600000000003</v>
       </c>
       <c r="F143">
-        <v>98.322199999999995</v>
+        <v>95.739400000000003</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3273,7 +3275,7 @@
         <v>101.08280000000001</v>
       </c>
       <c r="F144">
-        <v>98.243300000000005</v>
+        <v>95.095500000000001</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3293,7 +3295,7 @@
         <v>98.814800000000005</v>
       </c>
       <c r="F145">
-        <v>98.787599999999998</v>
+        <v>95.9803</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3313,7 +3315,7 @@
         <v>94.674999999999997</v>
       </c>
       <c r="F146">
-        <v>99.392499999999998</v>
+        <v>96.385900000000007</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3333,7 +3335,7 @@
         <v>94.079400000000007</v>
       </c>
       <c r="F147">
-        <v>99.6203</v>
+        <v>96.604900000000001</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3353,7 +3355,7 @@
         <v>99.091399999999993</v>
       </c>
       <c r="F148">
-        <v>99.155100000000004</v>
+        <v>96.686800000000005</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3373,7 +3375,7 @@
         <v>95.479200000000006</v>
       </c>
       <c r="F149">
-        <v>99.900599999999997</v>
+        <v>95.834199999999996</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3393,7 +3395,7 @@
         <v>100.3147</v>
       </c>
       <c r="F150">
-        <v>100.0924</v>
+        <v>96.617900000000006</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -3413,7 +3415,7 @@
         <v>99.685199999999995</v>
       </c>
       <c r="F151">
-        <v>100.0728</v>
+        <v>99.074700000000007</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3433,7 +3435,7 @@
         <v>99.310299999999998</v>
       </c>
       <c r="F152">
-        <v>100.33540000000001</v>
+        <v>97.629300000000001</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3453,7 +3455,7 @@
         <v>99.098699999999994</v>
       </c>
       <c r="F153">
-        <v>99.855999999999995</v>
+        <v>99.261899999999997</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -3473,7 +3475,7 @@
         <v>95.188900000000004</v>
       </c>
       <c r="F154">
-        <v>99.904899999999998</v>
+        <v>98.239099999999993</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -3493,7 +3495,7 @@
         <v>101.8593</v>
       </c>
       <c r="F155">
-        <v>100.11669999999999</v>
+        <v>97.374499999999998</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -3513,7 +3515,7 @@
         <v>104.38720000000001</v>
       </c>
       <c r="F156">
-        <v>100.59910000000001</v>
+        <v>97.307900000000004</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -3533,7 +3535,7 @@
         <v>100.53189999999999</v>
       </c>
       <c r="F157">
-        <v>100.9542</v>
+        <v>97.787000000000006</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -3553,7 +3555,7 @@
         <v>97.967399999999998</v>
       </c>
       <c r="F158">
-        <v>100.82040000000001</v>
+        <v>97.8947</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -3573,7 +3575,7 @@
         <v>94.671800000000005</v>
       </c>
       <c r="F159">
-        <v>101.3995</v>
+        <v>98.182299999999998</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -3593,7 +3595,7 @@
         <v>97.067300000000003</v>
       </c>
       <c r="F160">
-        <v>101.81140000000001</v>
+        <v>98.829800000000006</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -3613,7 +3615,7 @@
         <v>99.919899999999998</v>
       </c>
       <c r="F161">
-        <v>101.63639999999999</v>
+        <v>97.870800000000003</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -3633,7 +3635,7 @@
         <v>102.2805</v>
       </c>
       <c r="F162">
-        <v>101.74760000000001</v>
+        <v>98.0839</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -3653,7 +3655,7 @@
         <v>99.522499999999994</v>
       </c>
       <c r="F163">
-        <v>101.95489999999999</v>
+        <v>100.7332</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -3673,7 +3675,7 @@
         <v>100.8104</v>
       </c>
       <c r="F164">
-        <v>101.5204</v>
+        <v>98.882599999999996</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -3693,7 +3695,7 @@
         <v>100.2732</v>
       </c>
       <c r="F165">
-        <v>102.19070000000001</v>
+        <v>101.5421</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -3713,7 +3715,7 @@
         <v>96.805899999999994</v>
       </c>
       <c r="F166">
-        <v>102.717</v>
+        <v>100.9465</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -3733,7 +3735,7 @@
         <v>103.6678</v>
       </c>
       <c r="F167">
-        <v>102.5371</v>
+        <v>99.794399999999996</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -3753,7 +3755,7 @@
         <v>104.2283</v>
       </c>
       <c r="F168">
-        <v>102.8379</v>
+        <v>99.539599999999993</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -3773,7 +3775,7 @@
         <v>102.785</v>
       </c>
       <c r="F169">
-        <v>103.1504</v>
+        <v>99.793099999999995</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,7 +3795,7 @@
         <v>98.6922</v>
       </c>
       <c r="F170">
-        <v>102.7216</v>
+        <v>99.7376</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -3813,7 +3815,7 @@
         <v>96.926599999999993</v>
       </c>
       <c r="F171">
-        <v>103.5917</v>
+        <v>100.35720000000001</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -3833,7 +3835,7 @@
         <v>101.1074</v>
       </c>
       <c r="F172">
-        <v>104.5889</v>
+        <v>101.8167</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -3853,7 +3855,7 @@
         <v>100.3229</v>
       </c>
       <c r="F173">
-        <v>104.6371</v>
+        <v>100.37820000000001</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -3873,7 +3875,7 @@
         <v>104.8978</v>
       </c>
       <c r="F174">
-        <v>105.01519999999999</v>
+        <v>101.2526</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -3893,7 +3895,7 @@
         <v>102.80759999999999</v>
       </c>
       <c r="F175">
-        <v>105.4081</v>
+        <v>104.11579999999999</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -3913,7 +3915,7 @@
         <v>104.0395</v>
       </c>
       <c r="F176">
-        <v>105.6157</v>
+        <v>102.3896</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -3933,7 +3935,7 @@
         <v>101.7495</v>
       </c>
       <c r="F177">
-        <v>105.4986</v>
+        <v>104.8155</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -3953,7 +3955,7 @@
         <v>100.0043</v>
       </c>
       <c r="F178">
-        <v>105.8138</v>
+        <v>103.9419</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -3973,7 +3975,7 @@
         <v>106.89449999999999</v>
       </c>
       <c r="F179">
-        <v>105.8357</v>
+        <v>102.8638</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -3993,7 +3995,7 @@
         <v>106.4367</v>
       </c>
       <c r="F180">
-        <v>106.6634</v>
+        <v>103.0515</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4013,7 +4015,7 @@
         <v>107.0086</v>
       </c>
       <c r="F181">
-        <v>106.5085</v>
+        <v>102.94889999999999</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4033,7 +4035,7 @@
         <v>102.2984</v>
       </c>
       <c r="F182">
-        <v>105.9806</v>
+        <v>102.393</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4053,7 +4055,7 @@
         <v>99.923900000000003</v>
       </c>
       <c r="F183">
-        <v>105.4425</v>
+        <v>101.95480000000001</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4073,7 +4075,7 @@
         <v>104.7324</v>
       </c>
       <c r="F184">
-        <v>105.1464</v>
+        <v>101.9032</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -4093,7 +4095,7 @@
         <v>103.6431</v>
       </c>
       <c r="F185">
-        <v>104.52719999999999</v>
+        <v>99.626199999999997</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4113,7 +4115,7 @@
         <v>106.14879999999999</v>
       </c>
       <c r="F186">
-        <v>104.0742</v>
+        <v>99.8245</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,7 +4135,7 @@
         <v>107.0577</v>
       </c>
       <c r="F187">
-        <v>103.7174</v>
+        <v>102.24639999999999</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -4153,7 +4155,7 @@
         <v>107.2808</v>
       </c>
       <c r="F188">
-        <v>104.32429999999999</v>
+        <v>101.0468</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4173,7 +4175,7 @@
         <v>105.3815</v>
       </c>
       <c r="F189">
-        <v>104.1621</v>
+        <v>103.262</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4193,7 +4195,7 @@
         <v>104.87990000000001</v>
       </c>
       <c r="F190">
-        <v>103.77679999999999</v>
+        <v>101.0421</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4213,7 +4215,7 @@
         <v>109.2778</v>
       </c>
       <c r="F191">
-        <v>103.3976</v>
+        <v>100.04989999999999</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4233,7 +4235,7 @@
         <v>108.8944</v>
       </c>
       <c r="F192">
-        <v>102.6866</v>
+        <v>98.732699999999994</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4253,7 +4255,7 @@
         <v>109.8702</v>
       </c>
       <c r="F193">
-        <v>102.1014</v>
+        <v>98.102599999999995</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -4273,7 +4275,7 @@
         <v>104.5772</v>
       </c>
       <c r="F194">
-        <v>102.9525</v>
+        <v>99.022599999999997</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -4293,7 +4295,7 @@
         <v>104.855</v>
       </c>
       <c r="F195">
-        <v>102.2225</v>
+        <v>98.469700000000003</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -4313,7 +4315,7 @@
         <v>105.99039999999999</v>
       </c>
       <c r="F196">
-        <v>101.41549999999999</v>
+        <v>97.584599999999995</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4333,7 +4335,7 @@
         <v>107.34780000000001</v>
       </c>
       <c r="F197">
-        <v>101.5167</v>
+        <v>97.140600000000006</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -4353,7 +4355,7 @@
         <v>109.1572</v>
       </c>
       <c r="F198">
-        <v>101.4298</v>
+        <v>97.054199999999994</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -4373,7 +4375,7 @@
         <v>110.3785</v>
       </c>
       <c r="F199">
-        <v>101.8747</v>
+        <v>100.3595</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,7 +4395,7 @@
         <v>107.7753</v>
       </c>
       <c r="F200">
-        <v>102.13249999999999</v>
+        <v>98.655299999999997</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -4413,7 +4415,7 @@
         <v>109.1645</v>
       </c>
       <c r="F201">
-        <v>102.0407</v>
+        <v>100.8706</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -4433,7 +4435,7 @@
         <v>106.306</v>
       </c>
       <c r="F202">
-        <v>102.04770000000001</v>
+        <v>99.419700000000006</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -4453,7 +4455,7 @@
         <v>110.9543</v>
       </c>
       <c r="F203">
-        <v>102.24850000000001</v>
+        <v>98.802899999999994</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -4473,7 +4475,7 @@
         <v>114.05629999999999</v>
       </c>
       <c r="F204">
-        <v>102.05070000000001</v>
+        <v>97.723299999999995</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -4493,7 +4495,7 @@
         <v>113.4928</v>
       </c>
       <c r="F205">
-        <v>102.9281</v>
+        <v>98.776600000000002</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -4513,7 +4515,7 @@
         <v>108.6974</v>
       </c>
       <c r="F206">
-        <v>103.03660000000001</v>
+        <v>98.708500000000001</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -4533,7 +4535,7 @@
         <v>105.4796</v>
       </c>
       <c r="F207">
-        <v>102.64790000000001</v>
+        <v>98.215900000000005</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -4553,7 +4555,7 @@
         <v>111.9705</v>
       </c>
       <c r="F208">
-        <v>103.343</v>
+        <v>99.284899999999993</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -4573,7 +4575,7 @@
         <v>106.4962</v>
       </c>
       <c r="F209">
-        <v>104.27209999999999</v>
+        <v>97.661799999999999</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,7 +4595,7 @@
         <v>112.8887</v>
       </c>
       <c r="F210">
-        <v>104.41289999999999</v>
+        <v>98.878600000000006</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -4613,7 +4615,7 @@
         <v>113.1549</v>
       </c>
       <c r="F211">
-        <v>104.5849</v>
+        <v>101.81440000000001</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -4633,7 +4635,7 @@
         <v>109.12869999999999</v>
       </c>
       <c r="F212">
-        <v>104.5427</v>
+        <v>100.2313</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -4653,7 +4655,7 @@
         <v>111.9799</v>
       </c>
       <c r="F213">
-        <v>104.0475</v>
+        <v>101.6489</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -4673,7 +4675,7 @@
         <v>106.68219999999999</v>
       </c>
       <c r="F214">
-        <v>104.0502</v>
+        <v>100.24420000000001</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -4693,7 +4695,7 @@
         <v>112.7003</v>
       </c>
       <c r="F215">
-        <v>105.62869999999999</v>
+        <v>100.90730000000001</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -4713,7 +4715,7 @@
         <v>115.9299</v>
       </c>
       <c r="F216">
-        <v>106.193</v>
+        <v>100.76220000000001</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -4733,7 +4735,7 @@
         <v>114.7748</v>
       </c>
       <c r="F217">
-        <v>106.536</v>
+        <v>101.6421</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -4753,7 +4755,7 @@
         <v>110.85680000000001</v>
       </c>
       <c r="F218">
-        <v>106.2655</v>
+        <v>101.6219</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -4773,7 +4775,7 @@
         <v>107.81359999999999</v>
       </c>
       <c r="F219">
-        <v>106.64190000000001</v>
+        <v>101.6808</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -4793,7 +4795,7 @@
         <v>111.1747</v>
       </c>
       <c r="F220">
-        <v>107.25190000000001</v>
+        <v>102.4873</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4813,7 +4815,7 @@
         <v>111.2518</v>
       </c>
       <c r="F221">
-        <v>108.2223</v>
+        <v>101.9079</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4833,7 +4835,7 @@
         <v>115.3959</v>
       </c>
       <c r="F222">
-        <v>107.3639</v>
+        <v>101.32250000000001</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -4853,7 +4855,7 @@
         <v>114.4606</v>
       </c>
       <c r="F223">
-        <v>108.1707</v>
+        <v>104.6121</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,7 +4875,7 @@
         <v>112.86539999999999</v>
       </c>
       <c r="F224">
-        <v>108.652</v>
+        <v>103.4498</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,7 +4895,7 @@
         <v>113.9739</v>
       </c>
       <c r="F225">
-        <v>109.52460000000001</v>
+        <v>106.134</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -4913,7 +4915,7 @@
         <v>108.83759999999999</v>
       </c>
       <c r="F226">
-        <v>109.67489999999999</v>
+        <v>104.61490000000001</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -4933,7 +4935,7 @@
         <v>115.95010000000001</v>
       </c>
       <c r="F227">
-        <v>109.9165</v>
+        <v>103.51090000000001</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,7 +4955,7 @@
         <v>118.0373</v>
       </c>
       <c r="F228">
-        <v>110.5067</v>
+        <v>103.22799999999999</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +4975,7 @@
         <v>114.80249999999999</v>
       </c>
       <c r="F229">
-        <v>110.55159999999999</v>
+        <v>103.601</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -4993,7 +4995,7 @@
         <v>112.1386</v>
       </c>
       <c r="F230">
-        <v>110.1185</v>
+        <v>103.1944</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5013,7 +5015,7 @@
         <v>108.85590000000001</v>
       </c>
       <c r="F231">
-        <v>109.56310000000001</v>
+        <v>102.7222</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5033,7 +5035,7 @@
         <v>112.64919999999999</v>
       </c>
       <c r="F232">
-        <v>109.6811</v>
+        <v>103.07210000000001</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5053,7 +5055,7 @@
         <v>109.6429</v>
       </c>
       <c r="F233">
-        <v>108.98650000000001</v>
+        <v>100.6968</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5073,7 +5075,7 @@
         <v>114.9636</v>
       </c>
       <c r="F234">
-        <v>109.24290000000001</v>
+        <v>101.2748</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5093,7 +5095,7 @@
         <v>113.40179999999999</v>
       </c>
       <c r="F235">
-        <v>109.3599</v>
+        <v>103.9879</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5113,7 +5115,7 @@
         <v>113.2383</v>
       </c>
       <c r="F236">
-        <v>109.21429999999999</v>
+        <v>102.1311</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5124,7 +5126,7 @@
         <v>103.67</v>
       </c>
       <c r="C237">
-        <v>19.0747</v>
+        <v>19.684999999999999</v>
       </c>
       <c r="D237">
         <v>8.01</v>
@@ -5133,7 +5135,7 @@
         <v>113.3</v>
       </c>
       <c r="F237">
-        <v>105.33880000000001</v>
+        <v>104.9676</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5144,7 +5146,7 @@
         <v>103.94199999999999</v>
       </c>
       <c r="C238">
-        <v>20.098800000000001</v>
+        <v>19.586500000000001</v>
       </c>
       <c r="D238">
         <v>7.72</v>
@@ -5153,7 +5155,7 @@
         <v>108.9</v>
       </c>
       <c r="F238">
-        <v>101.64400000000001</v>
+        <v>103.0381</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -5164,7 +5166,7 @@
         <v>104.503</v>
       </c>
       <c r="C239">
-        <v>19.680800000000001</v>
+        <v>19.324200000000001</v>
       </c>
       <c r="D239">
         <v>7.66</v>
@@ -5173,7 +5175,7 @@
         <v>115.4</v>
       </c>
       <c r="F239">
-        <v>102.9898</v>
+        <v>101.4331</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -5184,7 +5186,7 @@
         <v>105.346</v>
       </c>
       <c r="C240">
-        <v>19.164300000000001</v>
+        <v>19.3325</v>
       </c>
       <c r="D240">
         <v>7.47</v>
@@ -5193,7 +5195,7 @@
         <v>116.2</v>
       </c>
       <c r="F240">
-        <v>101.03489999999999</v>
+        <v>101.5782</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,7 +5206,7 @@
         <v>105.934</v>
       </c>
       <c r="C241">
-        <v>19.6113</v>
+        <v>19.107099999999999</v>
       </c>
       <c r="D241">
         <v>7.12</v>
@@ -5213,7 +5215,7 @@
         <v>113.3</v>
       </c>
       <c r="F241">
-        <v>96.907399999999996</v>
+        <v>101.7663</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,7 +5226,7 @@
         <v>106.447</v>
       </c>
       <c r="C242">
-        <v>18.872699999999998</v>
+        <v>18.803999999999998</v>
       </c>
       <c r="D242">
         <v>7.12</v>
@@ -5233,7 +5235,7 @@
         <v>111.9</v>
       </c>
       <c r="F242">
-        <v>103.2473</v>
+        <v>101.2873</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -5244,7 +5246,7 @@
         <v>106.889</v>
       </c>
       <c r="C243">
-        <v>18.785299999999999</v>
+        <v>18.8443</v>
       </c>
       <c r="D243">
         <v>6.96</v>
@@ -5253,7 +5255,7 @@
         <v>108.3</v>
       </c>
       <c r="F243">
-        <v>99.592799999999997</v>
+        <v>102.0064</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,7 +5266,7 @@
         <v>106.83799999999999</v>
       </c>
       <c r="C244">
-        <v>19.397300000000001</v>
+        <v>22.378399999999999</v>
       </c>
       <c r="D244">
         <v>6.81</v>
@@ -5273,7 +5275,7 @@
         <v>109.8</v>
       </c>
       <c r="F244">
-        <v>99.515699999999995</v>
+        <v>98.091899999999995</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -5284,7 +5286,7 @@
         <v>105.755</v>
       </c>
       <c r="C245">
-        <v>24.285299999999999</v>
+        <v>24.265799999999999</v>
       </c>
       <c r="D245">
         <v>6.09</v>
@@ -5293,7 +5295,7 @@
         <v>87.9</v>
       </c>
       <c r="F245">
-        <v>71.046700000000001</v>
+        <v>82.900700000000001</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -5304,7 +5306,7 @@
         <v>106.16200000000001</v>
       </c>
       <c r="C246">
-        <v>24.0002</v>
+        <v>23.422999999999998</v>
       </c>
       <c r="D246">
         <v>5.47</v>
@@ -5313,7 +5315,7 @@
         <v>89.3</v>
       </c>
       <c r="F246">
-        <v>72.284000000000006</v>
+        <v>85.237700000000004</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -5324,7 +5326,7 @@
         <v>106.74299999999999</v>
       </c>
       <c r="C247">
-        <v>22.204000000000001</v>
+        <v>22.298999999999999</v>
       </c>
       <c r="D247">
         <v>5.0599999999999996</v>
@@ -5333,7 +5335,7 @@
         <v>97.8</v>
       </c>
       <c r="F247">
-        <v>86.105900000000005</v>
+        <v>93.0916</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,7 +5346,7 @@
         <v>107.444</v>
       </c>
       <c r="C248">
-        <v>23.1325</v>
+        <v>22.403300000000002</v>
       </c>
       <c r="D248">
         <v>4.82</v>
@@ -5353,7 +5355,7 @@
         <v>102</v>
       </c>
       <c r="F248">
-        <v>91.588399999999993</v>
+        <v>95.294200000000004</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -5364,7 +5366,7 @@
         <v>107.867</v>
       </c>
       <c r="C249">
-        <v>22.172699999999999</v>
+        <v>22.2072</v>
       </c>
       <c r="D249">
         <v>4.49</v>
@@ -5373,7 +5375,7 @@
         <v>102.7</v>
       </c>
       <c r="F249">
-        <v>95.986699999999999</v>
+        <v>98.305499999999995</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -5384,7 +5386,7 @@
         <v>108.114</v>
       </c>
       <c r="C250">
-        <v>21.860199999999999</v>
+        <v>21.681000000000001</v>
       </c>
       <c r="D250">
         <v>4.38</v>
@@ -5393,7 +5395,7 @@
         <v>102.9</v>
       </c>
       <c r="F250">
-        <v>95.385599999999997</v>
+        <v>95.907200000000003</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -5404,7 +5406,7 @@
         <v>108.774</v>
       </c>
       <c r="C251">
-        <v>22.3598</v>
+        <v>21.270499999999998</v>
       </c>
       <c r="D251">
         <v>4.2</v>
@@ -5413,7 +5415,7 @@
         <v>109.2</v>
       </c>
       <c r="F251">
-        <v>99.379300000000001</v>
+        <v>96.667599999999993</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -5424,7 +5426,7 @@
         <v>108.85599999999999</v>
       </c>
       <c r="C252">
-        <v>21.376999999999999</v>
+        <v>20.381900000000002</v>
       </c>
       <c r="D252">
         <v>4.2300000000000004</v>
@@ -5433,7 +5435,7 @@
         <v>111.2</v>
       </c>
       <c r="F252">
-        <v>97.067400000000006</v>
+        <v>96.502099999999999</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -5444,7 +5446,7 @@
         <v>109.271</v>
       </c>
       <c r="C253">
-        <v>20.0777</v>
+        <v>19.9651</v>
       </c>
       <c r="D253">
         <v>4.2699999999999996</v>
@@ -5453,7 +5455,7 @@
         <v>110.1</v>
       </c>
       <c r="F253">
-        <v>94.705100000000002</v>
+        <v>98.148300000000006</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -5464,16 +5466,16 @@
         <v>110.21</v>
       </c>
       <c r="C254">
-        <v>19.935199999999998</v>
+        <v>19.921500000000002</v>
       </c>
       <c r="D254">
-        <v>4.28</v>
+        <v>4.22</v>
       </c>
       <c r="E254">
-        <v>105.7</v>
+        <v>105.37</v>
       </c>
       <c r="F254">
-        <v>98.042299999999997</v>
+        <v>99.551699999999997</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -5484,16 +5486,16 @@
         <v>110.907</v>
       </c>
       <c r="C255">
-        <v>20.2697</v>
+        <v>20.309699999999999</v>
       </c>
       <c r="D255">
-        <v>4.24</v>
+        <v>4.12</v>
       </c>
       <c r="E255">
-        <v>102.8</v>
+        <v>102.67</v>
       </c>
       <c r="F255">
-        <v>95.147800000000004</v>
+        <v>96.685900000000004</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -5504,16 +5506,16 @@
         <v>111.824</v>
       </c>
       <c r="C256">
-        <v>20.8523</v>
+        <v>20.755500000000001</v>
       </c>
       <c r="D256">
-        <v>4.0599999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E256">
-        <v>110.7</v>
+        <v>111.52</v>
       </c>
       <c r="F256">
-        <v>101.1935</v>
+        <v>99.246499999999997</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -5524,16 +5526,16 @@
         <v>112.19</v>
       </c>
       <c r="C257">
-        <v>20.602499999999999</v>
+        <v>20.0153</v>
       </c>
       <c r="D257">
         <v>4.07</v>
       </c>
       <c r="E257">
-        <v>107.5</v>
+        <v>108.08</v>
       </c>
       <c r="F257">
-        <v>96.974500000000006</v>
+        <v>97.556700000000006</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -5544,16 +5546,16 @@
         <v>112.419</v>
       </c>
       <c r="C258">
-        <v>20.097799999999999</v>
+        <v>19.963100000000001</v>
       </c>
       <c r="D258">
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E258">
-        <v>111.8</v>
+        <v>112.06</v>
       </c>
       <c r="F258">
-        <v>98.610100000000003</v>
+        <v>98.607900000000001</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -5564,16 +5566,16 @@
         <v>113.018</v>
       </c>
       <c r="C259">
-        <v>19.944199999999999</v>
+        <v>20.030100000000001</v>
       </c>
       <c r="D259">
-        <v>4.07</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E259">
-        <v>110.8</v>
+        <v>111.19</v>
       </c>
       <c r="F259">
-        <v>97.719099999999997</v>
+        <v>101.3634</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -5584,16 +5586,236 @@
         <v>113.682</v>
       </c>
       <c r="C260">
-        <v>18.8157</v>
+        <v>19.970099999999999</v>
       </c>
       <c r="D260">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="E260">
-        <v>111.3</v>
+        <v>109.89</v>
       </c>
       <c r="F260">
-        <v>98.2517</v>
+        <v>100.7714</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B261">
+        <v>113.899</v>
+      </c>
+      <c r="C261">
+        <v>20.0761</v>
+      </c>
+      <c r="D261">
+        <v>4.46</v>
+      </c>
+      <c r="E261">
+        <v>107.25</v>
+      </c>
+      <c r="F261">
+        <v>102.5341</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B262">
+        <v>114.601</v>
+      </c>
+      <c r="C262">
+        <v>20.0487</v>
+      </c>
+      <c r="D262">
+        <v>4.55</v>
+      </c>
+      <c r="E262">
+        <v>104.27</v>
+      </c>
+      <c r="F262">
+        <v>99.536600000000007</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B263">
+        <v>115.56100000000001</v>
+      </c>
+      <c r="C263">
+        <v>20.462599999999998</v>
+      </c>
+      <c r="D263">
+        <v>4.84</v>
+      </c>
+      <c r="E263">
+        <v>108.49</v>
+      </c>
+      <c r="F263">
+        <v>101.0112</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B264">
+        <v>116.884</v>
+      </c>
+      <c r="C264">
+        <v>20.900400000000001</v>
+      </c>
+      <c r="D264">
+        <v>5.05</v>
+      </c>
+      <c r="E264">
+        <v>112.97</v>
+      </c>
+      <c r="F264">
+        <v>101.5134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B265">
+        <v>117.30800000000001</v>
+      </c>
+      <c r="C265">
+        <v>20.8918</v>
+      </c>
+      <c r="D265">
+        <v>5.29</v>
+      </c>
+      <c r="E265">
+        <v>112.33</v>
+      </c>
+      <c r="F265">
+        <v>101.6054</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B266">
+        <v>118.002</v>
+      </c>
+      <c r="C266">
+        <v>20.497800000000002</v>
+      </c>
+      <c r="D266">
+        <v>5.53</v>
+      </c>
+      <c r="E266">
+        <v>107.32</v>
+      </c>
+      <c r="F266">
+        <v>102.782</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B267">
+        <v>118.98099999999999</v>
+      </c>
+      <c r="C267">
+        <v>20.4495</v>
+      </c>
+      <c r="D267">
+        <v>5.87</v>
+      </c>
+      <c r="E267">
+        <v>105.26</v>
+      </c>
+      <c r="F267">
+        <v>103.4034</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B268">
+        <v>120.15900000000001</v>
+      </c>
+      <c r="C268">
+        <v>20.5562</v>
+      </c>
+      <c r="D268">
+        <v>6.31</v>
+      </c>
+      <c r="E268">
+        <v>111.97</v>
+      </c>
+      <c r="F268">
+        <v>104.1409</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B269">
+        <v>120.809</v>
+      </c>
+      <c r="C269">
+        <v>20.108799999999999</v>
+      </c>
+      <c r="D269">
+        <v>6.56</v>
+      </c>
+      <c r="E269">
+        <v>109.56</v>
+      </c>
+      <c r="F269">
+        <v>102.0836</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B270">
+        <v>121.02200000000001</v>
+      </c>
+      <c r="C270">
+        <v>20.0305</v>
+      </c>
+      <c r="D270">
+        <v>6.91</v>
+      </c>
+      <c r="E270">
+        <v>114.47</v>
+      </c>
+      <c r="F270">
+        <v>102.9795</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B271">
+        <v>122.044</v>
+      </c>
+      <c r="C271">
+        <v>20.023700000000002</v>
+      </c>
+      <c r="D271">
+        <v>7.31</v>
+      </c>
+      <c r="E271">
+        <v>112.92</v>
+      </c>
+      <c r="F271">
+        <v>105.2676</v>
       </c>
     </row>
   </sheetData>
